--- a/Saved_file/EM001/2026_12/sap_data.xlsx
+++ b/Saved_file/EM001/2026_12/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST5711</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57964517</v>
+        <v>47259393</v>
       </c>
       <c r="E2" t="n">
-        <v>18989186</v>
+        <v>13038410</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST6757</t>
+          <t>CUST8448</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38291016</v>
+        <v>44989845</v>
       </c>
       <c r="E3" t="n">
-        <v>12680363</v>
+        <v>12745751</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48962454</v>
+        <v>31339504</v>
       </c>
       <c r="E4" t="n">
-        <v>13735537</v>
+        <v>9940029</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST1683</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49657279</v>
+        <v>48233127</v>
       </c>
       <c r="E5" t="n">
-        <v>15727986</v>
+        <v>14625544</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST4156</t>
+          <t>CUST8448</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43037387</v>
+        <v>36018748</v>
       </c>
       <c r="E6" t="n">
-        <v>14718020</v>
+        <v>9334071</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1151</t>
+          <t>CUST8793</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45098167</v>
+        <v>32360002</v>
       </c>
       <c r="E7" t="n">
-        <v>13447431</v>
+        <v>10794889</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST3831</t>
+          <t>CUST2631</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52309289</v>
+        <v>33020912</v>
       </c>
       <c r="E8" t="n">
-        <v>15855554</v>
+        <v>10735372</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST8793</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55646775</v>
+        <v>42468645</v>
       </c>
       <c r="E9" t="n">
-        <v>16127210</v>
+        <v>10955263</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST3634</t>
+          <t>CUST5062</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59745835</v>
+        <v>42196058</v>
       </c>
       <c r="E10" t="n">
-        <v>18564738</v>
+        <v>11802819</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST7308</t>
+          <t>CUST5778</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45488488</v>
+        <v>51661103</v>
       </c>
       <c r="E11" t="n">
-        <v>12072390</v>
+        <v>14341513</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST4246</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48762263</v>
+        <v>50664397</v>
       </c>
       <c r="E12" t="n">
-        <v>13137340</v>
+        <v>13571394</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST4810</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47762488</v>
+        <v>58463052</v>
       </c>
       <c r="E13" t="n">
-        <v>12242860</v>
+        <v>14995049</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST3198</t>
+          <t>CUST9524</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33088057</v>
+        <v>50263203</v>
       </c>
       <c r="E14" t="n">
-        <v>9651260</v>
+        <v>13527057</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST5457</t>
+          <t>CUST8627</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58677858</v>
+        <v>40133240</v>
       </c>
       <c r="E15" t="n">
-        <v>17786260</v>
+        <v>10112248</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST7031</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33505835</v>
+        <v>43232588</v>
       </c>
       <c r="E16" t="n">
-        <v>9932696</v>
+        <v>13589961</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST5222</t>
+          <t>CUST8435</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41483056</v>
+        <v>55876761</v>
       </c>
       <c r="E17" t="n">
-        <v>13398936</v>
+        <v>14030873</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST8066</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58506706</v>
+        <v>41028951</v>
       </c>
       <c r="E18" t="n">
-        <v>15722197</v>
+        <v>11267042</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST6711</t>
+          <t>CUST9052</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41071072</v>
+        <v>32441701</v>
       </c>
       <c r="E19" t="n">
-        <v>14147824</v>
+        <v>9600783</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST8480</t>
+          <t>CUST1937</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33039632</v>
+        <v>42606410</v>
       </c>
       <c r="E20" t="n">
-        <v>10239555</v>
+        <v>12578404</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5222</t>
+          <t>CUST1457</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56372516</v>
+        <v>45220283</v>
       </c>
       <c r="E21" t="n">
-        <v>16699146</v>
+        <v>14116218</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST4132</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40282585</v>
+        <v>52892395</v>
       </c>
       <c r="E22" t="n">
-        <v>10968995</v>
+        <v>16653985</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST8273</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56635731</v>
+        <v>43882517</v>
       </c>
       <c r="E23" t="n">
-        <v>16417584</v>
+        <v>14277840</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1151</t>
+          <t>CUST5711</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35461840</v>
+        <v>54548573</v>
       </c>
       <c r="E24" t="n">
-        <v>11077665</v>
+        <v>19091638</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST5062</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52531962</v>
+        <v>44383087</v>
       </c>
       <c r="E25" t="n">
-        <v>16461573</v>
+        <v>11553676</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7031</t>
+          <t>CUST6572</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30152700</v>
+        <v>46081975</v>
       </c>
       <c r="E26" t="n">
-        <v>7602894</v>
+        <v>13757494</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8480</t>
+          <t>CUST6572</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57218164</v>
+        <v>37465641</v>
       </c>
       <c r="E27" t="n">
-        <v>16391623</v>
+        <v>9415789</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST8590</t>
+          <t>CUST9933</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50556634</v>
+        <v>39023260</v>
       </c>
       <c r="E28" t="n">
-        <v>15117323</v>
+        <v>10321195</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST8590</t>
+          <t>CUST5060</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31187871</v>
+        <v>33230571</v>
       </c>
       <c r="E29" t="n">
-        <v>8997263</v>
+        <v>9944347</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST5019</t>
+          <t>CUST8627</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32033363</v>
+        <v>52243350</v>
       </c>
       <c r="E30" t="n">
-        <v>8589412</v>
+        <v>17094835</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST2596</t>
+          <t>CUST8129</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58816191</v>
+        <v>30922733</v>
       </c>
       <c r="E31" t="n">
-        <v>16550581</v>
+        <v>8537760</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST1151</t>
+          <t>CUST7888</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40976389</v>
+        <v>31188428</v>
       </c>
       <c r="E32" t="n">
-        <v>11677748</v>
+        <v>9515001</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST9105</t>
+          <t>CUST2097</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36058358</v>
+        <v>55549744</v>
       </c>
       <c r="E33" t="n">
-        <v>11219480</v>
+        <v>17419655</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST5711</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43130220</v>
+        <v>53094938</v>
       </c>
       <c r="E34" t="n">
-        <v>13968698</v>
+        <v>16722096</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST4397</t>
+          <t>CUST5808</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33849752</v>
+        <v>57323820</v>
       </c>
       <c r="E35" t="n">
-        <v>10562450</v>
+        <v>19565417</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST1683</t>
+          <t>CUST9524</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35787051</v>
+        <v>42769332</v>
       </c>
       <c r="E36" t="n">
-        <v>10531687</v>
+        <v>12696127</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8424</t>
+          <t>CUST8435</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>43818575</v>
+        <v>55258247</v>
       </c>
       <c r="E37" t="n">
-        <v>13234971</v>
+        <v>14998113</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2398</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>51120013</v>
+        <v>42381106</v>
       </c>
       <c r="E38" t="n">
-        <v>13864234</v>
+        <v>14699399</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6431</t>
+          <t>CUST4132</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>48600039</v>
+        <v>48698667</v>
       </c>
       <c r="E39" t="n">
-        <v>14489398</v>
+        <v>12789610</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9711</t>
+          <t>CUST6487</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45466589</v>
+        <v>33574774</v>
       </c>
       <c r="E40" t="n">
-        <v>15755460</v>
+        <v>11251256</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST4099</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>46437649</v>
+        <v>58495869</v>
       </c>
       <c r="E41" t="n">
-        <v>15357272</v>
+        <v>17473247</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6610</t>
+          <t>CUST4873</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46626227</v>
+        <v>31534723</v>
       </c>
       <c r="E42" t="n">
-        <v>13768818</v>
+        <v>10440277</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2711,20 +2711,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST5438</t>
+          <t>CUST4914</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>33846715</v>
+        <v>38738998</v>
       </c>
       <c r="E43" t="n">
-        <v>9630340</v>
+        <v>10798888</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2502</t>
+          <t>CUST4745</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>41663215</v>
+        <v>41449752</v>
       </c>
       <c r="E44" t="n">
-        <v>12054343</v>
+        <v>12516426</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5438</t>
+          <t>CUST2051</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32438248</v>
+        <v>56341299</v>
       </c>
       <c r="E45" t="n">
-        <v>8889028</v>
+        <v>14701315</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2749</t>
+          <t>CUST6789</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50084803</v>
+        <v>52624903</v>
       </c>
       <c r="E46" t="n">
-        <v>16986823</v>
+        <v>14326205</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST5457</t>
+          <t>CUST3327</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>41125903</v>
+        <v>38137229</v>
       </c>
       <c r="E47" t="n">
-        <v>11104571</v>
+        <v>9793391</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST8590</t>
+          <t>CUST4015</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30097026</v>
+        <v>56709058</v>
       </c>
       <c r="E48" t="n">
-        <v>8031059</v>
+        <v>17225814</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4977</t>
+          <t>CUST5079</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34178046</v>
+        <v>30529312</v>
       </c>
       <c r="E49" t="n">
-        <v>11529981</v>
+        <v>7734310</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST6757</t>
+          <t>CUST3327</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>49026876</v>
+        <v>34833080</v>
       </c>
       <c r="E50" t="n">
-        <v>16311539</v>
+        <v>9817806</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2789</t>
+          <t>CUST4185</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>33624747</v>
+        <v>32788084</v>
       </c>
       <c r="E51" t="n">
-        <v>8521295</v>
+        <v>8591342</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST8793</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>47141381</v>
+        <v>32253613</v>
       </c>
       <c r="E52" t="n">
-        <v>15657144</v>
+        <v>9774938</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7754</t>
+          <t>CUST6572</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>54565587</v>
+        <v>47510835</v>
       </c>
       <c r="E53" t="n">
-        <v>18068929</v>
+        <v>12479670</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST7031</t>
+          <t>CUST4810</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>48671354</v>
+        <v>58068260</v>
       </c>
       <c r="E54" t="n">
-        <v>14516347</v>
+        <v>17562175</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST7754</t>
+          <t>CUST4246</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>43831178</v>
+        <v>42807633</v>
       </c>
       <c r="E55" t="n">
-        <v>11008076</v>
+        <v>13204755</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST8678</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>31911285</v>
+        <v>55425631</v>
       </c>
       <c r="E56" t="n">
-        <v>9823590</v>
+        <v>17955845</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST2789</t>
+          <t>CUST1457</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>42257663</v>
+        <v>48924171</v>
       </c>
       <c r="E57" t="n">
-        <v>13893741</v>
+        <v>14201828</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2727</t>
+          <t>CUST8448</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35178266</v>
+        <v>37460467</v>
       </c>
       <c r="E58" t="n">
-        <v>9238836</v>
+        <v>10003765</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2596</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>53575816</v>
+        <v>46719294</v>
       </c>
       <c r="E59" t="n">
-        <v>13885475</v>
+        <v>13854491</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9315</t>
+          <t>CUST7156</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>46524192</v>
+        <v>36108965</v>
       </c>
       <c r="E60" t="n">
-        <v>13209326</v>
+        <v>10176305</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST5222</t>
+          <t>CUST4810</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33895979</v>
+        <v>39924867</v>
       </c>
       <c r="E61" t="n">
-        <v>9794825</v>
+        <v>13495848</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2502</t>
+          <t>CUST5778</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>50712774</v>
+        <v>43740713</v>
       </c>
       <c r="E62" t="n">
-        <v>14657469</v>
+        <v>13315166</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1982</t>
+          <t>CUST4216</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32177758</v>
+        <v>55455307</v>
       </c>
       <c r="E63" t="n">
-        <v>11227750</v>
+        <v>14371079</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,12 +3818,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST5781</t>
+          <t>CUST5079</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>42780405</v>
+        <v>52569278</v>
       </c>
       <c r="E64" t="n">
-        <v>14205237</v>
+        <v>14528533</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST5958</t>
+          <t>CUST4873</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49237532</v>
+        <v>32228024</v>
       </c>
       <c r="E65" t="n">
-        <v>13406644</v>
+        <v>8665500</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-12-29</t>
+          <t>2026-12-06</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3831</t>
+          <t>CUST6487</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>46786891</v>
+        <v>46502356</v>
       </c>
       <c r="E66" t="n">
-        <v>12805345</v>
+        <v>15322857</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST7607</t>
+          <t>CUST7888</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>33934961</v>
+        <v>59865688</v>
       </c>
       <c r="E67" t="n">
-        <v>11375388</v>
+        <v>19395344</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST1982</t>
+          <t>CUST7156</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>45750996</v>
+        <v>53278003</v>
       </c>
       <c r="E68" t="n">
-        <v>12513099</v>
+        <v>14251190</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST5958</t>
+          <t>CUST5808</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>56195174</v>
+        <v>47960750</v>
       </c>
       <c r="E69" t="n">
-        <v>17835434</v>
+        <v>13817333</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST8424</t>
+          <t>CUST4914</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>57647253</v>
+        <v>35206285</v>
       </c>
       <c r="E70" t="n">
-        <v>17143370</v>
+        <v>9994641</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST6789</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>44948680</v>
+        <v>56368182</v>
       </c>
       <c r="E71" t="n">
-        <v>13200718</v>
+        <v>14189672</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4255,12 +4255,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST5537</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>30827121</v>
+        <v>59234730</v>
       </c>
       <c r="E72" t="n">
-        <v>8997176</v>
+        <v>17736394</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST4397</t>
+          <t>CUST1811</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>45803239</v>
+        <v>48323290</v>
       </c>
       <c r="E73" t="n">
-        <v>14684237</v>
+        <v>16655708</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,12 +4358,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST2596</t>
+          <t>CUST9933</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>46130131</v>
+        <v>38608795</v>
       </c>
       <c r="E74" t="n">
-        <v>15849797</v>
+        <v>12961798</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4417,12 +4417,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST3831</t>
+          <t>CUST4914</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>53554756</v>
+        <v>46271998</v>
       </c>
       <c r="E75" t="n">
-        <v>16656335</v>
+        <v>14660385</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST7308</t>
+          <t>CUST5079</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>45231180</v>
+        <v>40641739</v>
       </c>
       <c r="E76" t="n">
-        <v>15017792</v>
+        <v>13003447</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST4397</t>
+          <t>CUST6874</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>59922157</v>
+        <v>47813021</v>
       </c>
       <c r="E77" t="n">
-        <v>18192450</v>
+        <v>15014488</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST2596</t>
+          <t>CUST8071</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>37801104</v>
+        <v>58292427</v>
       </c>
       <c r="E78" t="n">
-        <v>13156176</v>
+        <v>18698177</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST5438</t>
+          <t>CUST9933</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>36094614</v>
+        <v>59142457</v>
       </c>
       <c r="E79" t="n">
-        <v>10283042</v>
+        <v>18317913</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST3941</t>
+          <t>CUST7435</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>35568978</v>
+        <v>47773858</v>
       </c>
       <c r="E80" t="n">
-        <v>11117633</v>
+        <v>13693519</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST1683</t>
+          <t>CUST2051</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>30547520</v>
+        <v>55930204</v>
       </c>
       <c r="E81" t="n">
-        <v>10564027</v>
+        <v>14465774</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6610</t>
+          <t>CUST4132</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>55458657</v>
+        <v>34007691</v>
       </c>
       <c r="E82" t="n">
-        <v>18727291</v>
+        <v>10346805</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST8590</t>
+          <t>CUST6567</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>35923751</v>
+        <v>52992399</v>
       </c>
       <c r="E83" t="n">
-        <v>11327223</v>
+        <v>16642948</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST2055</t>
+          <t>CUST6874</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>50273246</v>
+        <v>48826817</v>
       </c>
       <c r="E84" t="n">
-        <v>15896169</v>
+        <v>12248184</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST5457</t>
+          <t>CUST3327</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>42123186</v>
+        <v>57792181</v>
       </c>
       <c r="E85" t="n">
-        <v>11214548</v>
+        <v>19654807</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST7308</t>
+          <t>CUST5778</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>53289574</v>
+        <v>57474156</v>
       </c>
       <c r="E86" t="n">
-        <v>17329474</v>
+        <v>16493240</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST3634</t>
+          <t>CUST9010</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>38654605</v>
+        <v>53259503</v>
       </c>
       <c r="E87" t="n">
-        <v>12391741</v>
+        <v>17217228</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>30097993</v>
+        <v>54584190</v>
       </c>
       <c r="E88" t="n">
-        <v>9686337</v>
+        <v>16060150</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-12-29</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST6431</t>
+          <t>CUST5808</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>37452628</v>
+        <v>37665803</v>
       </c>
       <c r="E89" t="n">
-        <v>12139354</v>
+        <v>11200963</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-12-29</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2727</t>
+          <t>CUST8435</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>44337614</v>
+        <v>30312227</v>
       </c>
       <c r="E90" t="n">
-        <v>14412284</v>
+        <v>10587376</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST8066</t>
+          <t>CUST4810</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>47041310</v>
+        <v>52907938</v>
       </c>
       <c r="E91" t="n">
-        <v>13832784</v>
+        <v>13453941</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST1947</t>
+          <t>CUST2051</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>44342217</v>
+        <v>46545137</v>
       </c>
       <c r="E92" t="n">
-        <v>14723359</v>
+        <v>14964644</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST7607</t>
+          <t>CUST8627</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>32792136</v>
+        <v>34243918</v>
       </c>
       <c r="E93" t="n">
-        <v>10171745</v>
+        <v>9500004</v>
       </c>
       <c r="F93" t="n">
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST2502</t>
+          <t>CUST5778</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>46027559</v>
+        <v>49506727</v>
       </c>
       <c r="E94" t="n">
-        <v>14546738</v>
+        <v>16940931</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST7308</t>
+          <t>CUST9933</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>56327378</v>
+        <v>32306106</v>
       </c>
       <c r="E95" t="n">
-        <v>14240266</v>
+        <v>10817455</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST4534</t>
+          <t>CUST4099</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>59530485</v>
+        <v>38423357</v>
       </c>
       <c r="E96" t="n">
-        <v>19131993</v>
+        <v>12150731</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5627,20 +5627,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST5457</t>
+          <t>CUST3327</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>47312794</v>
+        <v>35501644</v>
       </c>
       <c r="E97" t="n">
-        <v>15660256</v>
+        <v>10367565</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST3352</t>
+          <t>CUST8071</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>57672090</v>
+        <v>57517757</v>
       </c>
       <c r="E98" t="n">
-        <v>19201558</v>
+        <v>14763822</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST2596</t>
+          <t>CUST4745</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>42869168</v>
+        <v>45529866</v>
       </c>
       <c r="E99" t="n">
-        <v>12763378</v>
+        <v>15310536</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5784,29 +5784,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST6914</t>
+          <t>CUST9895</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>52752267</v>
+        <v>54821432</v>
       </c>
       <c r="E100" t="n">
-        <v>14498091</v>
+        <v>18470083</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,17 +5816,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST1488</t>
+          <t>CUST8435</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>53107389</v>
+        <v>32885322</v>
       </c>
       <c r="E101" t="n">
-        <v>18368558</v>
+        <v>10036579</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST2055</t>
+          <t>CUST6874</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33220777</v>
+        <v>31346767</v>
       </c>
       <c r="E102" t="n">
-        <v>11491738</v>
+        <v>8884125</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST9711</t>
+          <t>CUST4810</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>31903143</v>
+        <v>37354443</v>
       </c>
       <c r="E103" t="n">
-        <v>11011937</v>
+        <v>10584390</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5978,17 +5978,17 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6005,20 +6005,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST5781</t>
+          <t>CUST6567</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>34584427</v>
+        <v>45408421</v>
       </c>
       <c r="E104" t="n">
-        <v>9758248</v>
+        <v>15204011</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,12 +6032,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-31</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST7031</t>
+          <t>CUST8627</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>37966071</v>
+        <v>54788024</v>
       </c>
       <c r="E105" t="n">
-        <v>12109218</v>
+        <v>14333948</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6108,22 +6108,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST3500</t>
+          <t>CUST9895</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>59820255</v>
+        <v>51683930</v>
       </c>
       <c r="E106" t="n">
-        <v>16285220</v>
+        <v>17976433</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
         <v>57</v>
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST9426</t>
+          <t>CUST6567</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52275031</v>
+        <v>53110773</v>
       </c>
       <c r="E107" t="n">
-        <v>15197379</v>
+        <v>18489134</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST2789</t>
+          <t>CUST9052</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>54508090</v>
+        <v>52400730</v>
       </c>
       <c r="E108" t="n">
-        <v>15546519</v>
+        <v>13770451</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6253,12 +6253,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST4156</t>
+          <t>CUST5778</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>36786769</v>
+        <v>44059573</v>
       </c>
       <c r="E109" t="n">
-        <v>11818281</v>
+        <v>14911455</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6307,12 +6307,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST9105</t>
+          <t>CUST3327</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>43373139</v>
+        <v>31383017</v>
       </c>
       <c r="E110" t="n">
-        <v>13694592</v>
+        <v>10635364</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6378,29 +6378,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-26</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST2749</t>
+          <t>CUST4745</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>48430148</v>
+        <v>43686791</v>
       </c>
       <c r="E111" t="n">
-        <v>13339736</v>
+        <v>14571275</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6432,19 +6432,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST4534</t>
+          <t>CUST4185</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>30585163</v>
+        <v>56974916</v>
       </c>
       <c r="E112" t="n">
-        <v>9031932</v>
+        <v>17377816</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST4534</t>
+          <t>CUST4216</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>34482056</v>
+        <v>59270123</v>
       </c>
       <c r="E113" t="n">
-        <v>10730320</v>
+        <v>19672649</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST6610</t>
+          <t>CUST7156</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>47494510</v>
+        <v>46955532</v>
       </c>
       <c r="E114" t="n">
-        <v>15120018</v>
+        <v>12811575</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6572,12 +6572,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST7308</t>
+          <t>CUST6487</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>50086448</v>
+        <v>30492911</v>
       </c>
       <c r="E115" t="n">
-        <v>13918558</v>
+        <v>10058378</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST7754</t>
+          <t>CUST8129</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>37482473</v>
+        <v>50923873</v>
       </c>
       <c r="E116" t="n">
-        <v>11944532</v>
+        <v>14005474</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -6702,25 +6702,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST9105</t>
+          <t>CUST7323</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>48237411</v>
+        <v>49825867</v>
       </c>
       <c r="E117" t="n">
-        <v>15038735</v>
+        <v>14817072</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST8424</t>
+          <t>CUST5060</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>47597893</v>
+        <v>34025310</v>
       </c>
       <c r="E118" t="n">
-        <v>12159104</v>
+        <v>8590451</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST7607</t>
+          <t>CUST7435</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>30738294</v>
+        <v>33715428</v>
       </c>
       <c r="E119" t="n">
-        <v>9486906</v>
+        <v>9922177</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST6757</t>
+          <t>CUST7888</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50334490</v>
+        <v>54090151</v>
       </c>
       <c r="E120" t="n">
-        <v>17015872</v>
+        <v>14756348</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6896,12 +6896,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST2789</t>
+          <t>CUST5537</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>34801552</v>
+        <v>56783337</v>
       </c>
       <c r="E121" t="n">
-        <v>9648041</v>
+        <v>17736199</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.3</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4747229</v>
+        <v>15890893</v>
       </c>
       <c r="E2" t="n">
-        <v>1246372</v>
+        <v>2299905</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>13050552</v>
+        <v>3338549</v>
       </c>
       <c r="E3" t="n">
-        <v>2552914</v>
+        <v>707323</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.7</v>
+        <v>96.8</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>19100039</v>
+        <v>16298795</v>
       </c>
       <c r="E4" t="n">
-        <v>2535910</v>
+        <v>2518423</v>
       </c>
     </row>
     <row r="5">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.2</v>
+        <v>92.7</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5086586</v>
+        <v>5982841</v>
       </c>
       <c r="E5" t="n">
-        <v>1429850</v>
+        <v>1118194</v>
       </c>
     </row>
     <row r="6">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8593225</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2529452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>98.8</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>14434064</v>
+        <v>8332395</v>
       </c>
       <c r="E8" t="n">
-        <v>4077143</v>
+        <v>1267939</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>7646761</v>
+        <v>14597812</v>
       </c>
       <c r="E9" t="n">
-        <v>1333640</v>
+        <v>3132820</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>9640713</v>
+        <v>4902581</v>
       </c>
       <c r="E10" t="n">
-        <v>2148118</v>
+        <v>1187635</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>13313911</v>
+        <v>3164922</v>
       </c>
       <c r="E11" t="n">
-        <v>3338189</v>
+        <v>639159</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>4838531</v>
+        <v>16572240</v>
       </c>
       <c r="E12" t="n">
-        <v>1293987</v>
+        <v>2892473</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6925613</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2007764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.7</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4800373</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>730669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>19882922</v>
+        <v>6333920</v>
       </c>
       <c r="E15" t="n">
-        <v>3905967</v>
+        <v>1400824</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>12799557</v>
+        <v>16599161</v>
       </c>
       <c r="E16" t="n">
-        <v>2499615</v>
+        <v>4429823</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7969822</v>
+        <v>10740055</v>
       </c>
       <c r="E17" t="n">
-        <v>2347707</v>
+        <v>1680154</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.5</v>
+        <v>91.8</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>8117563</v>
+        <v>3846863</v>
       </c>
       <c r="E18" t="n">
-        <v>907690</v>
+        <v>529427</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>2526113</v>
+        <v>4035874</v>
       </c>
       <c r="E19" t="n">
-        <v>457454</v>
+        <v>669137</v>
       </c>
     </row>
     <row r="20">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.3</v>
+        <v>91.8</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>5659762</v>
+        <v>5541548</v>
       </c>
       <c r="E21" t="n">
-        <v>1271645</v>
+        <v>1382446</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>5367525</v>
+        <v>17665323</v>
       </c>
       <c r="E22" t="n">
-        <v>1184794</v>
+        <v>4614895</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7418137</v>
+        <v>13955297</v>
       </c>
       <c r="E23" t="n">
-        <v>1414158</v>
+        <v>3214392</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.8</v>
+        <v>96</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>12641248</v>
+        <v>13462910</v>
       </c>
       <c r="E24" t="n">
-        <v>2368051</v>
+        <v>2078871</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.2</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>11172537</v>
+        <v>4650213</v>
       </c>
       <c r="E25" t="n">
-        <v>1995131</v>
+        <v>1118946</v>
       </c>
     </row>
     <row r="26">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.2</v>
+        <v>95</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>5889160</v>
+        <v>16102163</v>
       </c>
       <c r="E26" t="n">
-        <v>888498</v>
+        <v>1921317</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>80.7</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1523458</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>400947</v>
       </c>
     </row>
     <row r="28">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>23480408</v>
+        <v>12420559</v>
       </c>
       <c r="E29" t="n">
-        <v>6280476</v>
+        <v>3115463</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>6620769</v>
+        <v>10403998</v>
       </c>
       <c r="E30" t="n">
-        <v>807930</v>
+        <v>1088207</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>9591077</v>
+        <v>8595278</v>
       </c>
       <c r="E31" t="n">
-        <v>1850817</v>
+        <v>1177827</v>
       </c>
     </row>
     <row r="32">
@@ -7587,16 +7587,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>8055452</v>
+        <v>12866416</v>
       </c>
       <c r="E32" t="n">
-        <v>1546938</v>
+        <v>2840759</v>
       </c>
     </row>
   </sheetData>
